--- a/biology/Médecine/Atrabilaire/Atrabilaire.xlsx
+++ b/biology/Médecine/Atrabilaire/Atrabilaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atrabilaire (du latin atra bilis, « bile noire ») désigne dans le langage courant, en partant de la théorie des humeurs des disciples d'Hippocrate, un individu disposé à l'abattement, la tristesse, la méfiance et la critique.
 Dans un sens positif, on lui attribue également la fiabilité et la maîtrise de soi[réf. nécessaire].
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « atrabilaire », composé d'« atrabile » et du suffixe « -aire », apparaît en 1546[1]. En 1845, son synonyme « atrabilieux » est conçu[2].
-« Atrabile » est la francisation du terme latin « atra bilis » qui se traduit par « bile noire ». De même, la traduction française « bile noire » peut servir comme synonyme d'« atrabile »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « atrabilaire », composé d'« atrabile » et du suffixe « -aire », apparaît en 1546. En 1845, son synonyme « atrabilieux » est conçu.
+« Atrabile » est la francisation du terme latin « atra bilis » qui se traduit par « bile noire ». De même, la traduction française « bile noire » peut servir comme synonyme d'« atrabile ».
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dictionnaire de l’Académie française, 9e édition, indique que le mot « atrabilaire », qui désigne un individu « porté à la mauvaise humeur [et] à l'irritation », est utilisable comme adjectif et substantif.
-Selon le Littré, ce terme, qui a en outre un sens anatomique[4] renvoyant à la bile noire, se définit ainsi[5] : « Nom que les anciens donnaient à une humeur épaisse, noire, âcre, qu'ils supposaient sécrétée par les capsules surrénales. L'existence de cette humeur est imaginaire, ainsi que les effets qu'on lui attribuait sur le caractère. » Cependant, le Littré attribue également l'humeur mauvaise à ce terme, précisant qu'il est un synonyme de « mélancolique ».
-La bile noire désigne une « substance hypothétique de l'ancienne médecine qui passait pour causer la mélancolie et l'hypochondrie[6]. »
+Selon le Littré, ce terme, qui a en outre un sens anatomique renvoyant à la bile noire, se définit ainsi : « Nom que les anciens donnaient à une humeur épaisse, noire, âcre, qu'ils supposaient sécrétée par les capsules surrénales. L'existence de cette humeur est imaginaire, ainsi que les effets qu'on lui attribuait sur le caractère. » Cependant, le Littré attribue également l'humeur mauvaise à ce terme, précisant qu'il est un synonyme de « mélancolique ».
+La bile noire désigne une « substance hypothétique de l'ancienne médecine qui passait pour causer la mélancolie et l'hypochondrie. »
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Rapport avec la mélancolie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbé Roubaud explique que les mots « mélancolie » et « atrabile » ont une connotation différente :
 « Le mélancolique et l'atrabilaire sont tourmentés d'une bile noire, recuite, résineuse, visqueuse et tenace, qui est adhérente aux viscères, trouble les digestions, envoye des vapeurs épaisses au cerveau, arrête et vicie les humeurs, et cause enfin le plus grand désordre dans toute l'économie animale. Les villes fourmillent de ces malades-là.
@@ -592,9 +610,9 @@
 Le mélancolique meurt lentement : c'est l'atrabilaire qui le tue.
 Atrabilaire ne s'applique qu'aux personnes ; mais on dit un temps mélancolique, un jeu mélancolique, ou qui inspire la mélancolie. Le mot atrabile exprimeroit bien le mal physique : la mélancolie ne designe souvent que des peines d'esprit manifestées par un air triste et languissant. »
 — Pierre-Joseph-Andre Roubaud, Synonymes français, t. III, 1796, p. 170
-Au-delà, Bonnaire (1835) observe également qu'il existe une nuance entre un atrabilaire et un mélancolique[2] :
+Au-delà, Bonnaire (1835) observe également qu'il existe une nuance entre un atrabilaire et un mélancolique :
 « Le mélancolique évite les hommes, l'atrabilaire les repousse. »
-Hildegarde de Bingen précise : « Les femmes mélancoliques ont la chair maigre, des veines épaisses, des os modestes, et leur sang est plus rouge-bleu que de la couleur rouge, et elles ont une face comme bondée de bleu ou noir, etc.[7] »
+Hildegarde de Bingen précise : « Les femmes mélancoliques ont la chair maigre, des veines épaisses, des os modestes, et leur sang est plus rouge-bleu que de la couleur rouge, et elles ont une face comme bondée de bleu ou noir, etc. »
 </t>
         </is>
       </c>
@@ -623,10 +641,12 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la littérature, le terme est employé pour désigner une mauvaise humeur, l'irritation, la colère ou la mélancolie[2].
-Le terme est utilisé par Molière[8],[9], Voltaire[10],[11],[12],[13],Charles Nodier[14] et dans la littérature contemporaine, par Jean Guéhenno[15], Nathalie Sarraute[16] et Mathias Enard[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la littérature, le terme est employé pour désigner une mauvaise humeur, l'irritation, la colère ou la mélancolie.
+Le terme est utilisé par Molière VoltaireCharles Nodier et dans la littérature contemporaine, par Jean Guéhenno, Nathalie Sarraute et Mathias Enard.
 Le prophète Jonas, héros biblique du Livre de Jonas représente également un type  d'Atrabilaire.
 </t>
         </is>
@@ -656,13 +676,15 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Hans Eysenck, le tempérament bilieux se caractérise par la combinaison de l'instabilité émotionnelle avec l'introversion.
-Ambroise Paré utilise le terme dans un sens lié à la théorie des tempéraments[18],[19].
+Ambroise Paré utilise le terme dans un sens lié à la théorie des tempéraments,.
 Pierre Jean Georges Cabanis attribue un sens cognitif au terme « atrabilaire » :
-« Les maladies chroniques dépendent presque toutes, dans les pays chauds et secs, d'inflammations lentes, d'engorgements hypocondriaques, ou de dégénérations atrabilaires, introduites dans toutes les humeurs[20]. »
-« Arétée distingue soigneusement les délires causés par les obstructions viscérales atrabilaires, de ceux qui se manifestent directement dans les fonctions du cerveau[21]. »
+« Les maladies chroniques dépendent presque toutes, dans les pays chauds et secs, d'inflammations lentes, d'engorgements hypocondriaques, ou de dégénérations atrabilaires, introduites dans toutes les humeurs. »
+« Arétée distingue soigneusement les délires causés par les obstructions viscérales atrabilaires, de ceux qui se manifestent directement dans les fonctions du cerveau. »
 Cependant, des classifications modernes comme la CIM-10 ne connaissent pas « atrabilaire » en tant que diagnostic : la formation des traits de caractère d'un individu est jugée d'une façon plus différenciée par la psychologie de la personnalité contemporaine ; beaucoup d'autres facteurs sont impliqués et aboutissent à l'ensemble de la personnalité d'une personne.
 </t>
         </is>
